--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1698412.240862602</v>
+        <v>1730553.554877058</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6243931.323401426</v>
+        <v>6338912.955730673</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -671,10 +671,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>70.65123981551163</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>101.9674840292992</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -801,7 +801,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035089</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>248.7596263258332</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>348.8979003524329</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>114.3486586083432</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1108,16 +1108,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>247.9563977274959</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.9052727725922</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.3727203283489</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.99728392830519</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>35.20092700998282</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1607,10 +1607,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>165.7499153537906</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>67.65667327773716</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,10 +1825,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.306140369575</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>216.6020410093142</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>245.6062471592107</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>90.590025890875</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>27.18442331492858</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.13424985736064</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="29">
@@ -2953,10 +2953,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28.46824604904448</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>24.62703520776627</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932896</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225671</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3266,25 +3266,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791314603</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,16 +3323,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149784</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>125.654469282897</v>
       </c>
       <c r="X37" t="n">
-        <v>219.2875345484092</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629689</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791315203</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800149</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556919</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317973</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016074</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117702</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978614</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665293</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307154</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149834</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573294</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394258</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>246.371848180868</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695715</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199218</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790329</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>308.1804714222858</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800149</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556919</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317973</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016074</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704926</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117702</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978614</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244307</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665293</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307154</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168196</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>239.1427579073346</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394258</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.085953048274</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695715</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199218</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629689</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791315203</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800149</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556919</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>403.5699857080158</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317973</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016074</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>129.0617197611568</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117702</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978614</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244307</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665293</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149834</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573294</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394258</v>
+        <v>266.8594808797418</v>
       </c>
       <c r="V46" t="n">
-        <v>284.085953048274</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695715</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790329</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.8413732171584</v>
+        <v>844.0044704481411</v>
       </c>
       <c r="C2" t="n">
-        <v>190.7393044409857</v>
+        <v>809.9024016719685</v>
       </c>
       <c r="D2" t="n">
-        <v>158.8699236558343</v>
+        <v>778.0330208868171</v>
       </c>
       <c r="E2" t="n">
-        <v>129.1355828545336</v>
+        <v>748.2986800855164</v>
       </c>
       <c r="F2" t="n">
-        <v>105.3085573041454</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1290.466870521839</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1290.466870521839</v>
       </c>
       <c r="W2" t="n">
-        <v>670.4887227422939</v>
+        <v>1289.651819973277</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3462593216046</v>
+        <v>1274.549760592991</v>
       </c>
       <c r="Y2" t="n">
-        <v>247.1005396616621</v>
+        <v>1270.304040933049</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="L3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="M3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="N3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="O3" t="n">
         <v>804.6185656731816</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>973.0996549038641</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5379433870891</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4489,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1445.911080256343</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1200.519325589756</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>973.0996549038641</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1783.901035373299</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>1749.798966597126</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1313.88918177157</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>880.1144369298654</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.2470073390731</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2178.745152974707</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1826.323031406593</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1825.50798085803</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1810.405921477745</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1806.160201817802</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970922</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600.9454964518109</v>
+        <v>593.0357356940372</v>
       </c>
       <c r="C7" t="n">
-        <v>428.3837849350358</v>
+        <v>420.4740241772621</v>
       </c>
       <c r="D7" t="n">
-        <v>262.5057921365585</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5057921365585</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1020.18378585669</v>
+        <v>1816.647692308782</v>
       </c>
       <c r="V7" t="n">
-        <v>1020.18378585669</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1020.18378585669</v>
+        <v>1257.665779765504</v>
       </c>
       <c r="X7" t="n">
-        <v>1020.18378585669</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>792.764115170798</v>
+        <v>784.8543544130243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.8932738874814</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>914.6089660449918</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.3228423446452</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168569</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351992</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526437</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847319</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939397</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693464</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.99017326377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097166</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.79883405576</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239597</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112636</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429653</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774513</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353823</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653477</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776222</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777443</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S13" t="n">
-        <v>2677.839094654636</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="T13" t="n">
-        <v>2677.839094654636</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U13" t="n">
-        <v>2399.406093907741</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778172</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168569</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2730.888184049008</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>3856.619167485454</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4836.79883405576</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.79883405576</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.79883405576</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112636</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429653</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774512</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353823</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653476</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1078.256218512436</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C16" t="n">
-        <v>905.6945069956606</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777443</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713471</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1742.886262583902</v>
+        <v>1454.966900465226</v>
       </c>
       <c r="X16" t="n">
-        <v>1497.494507917315</v>
+        <v>1236.176960051778</v>
       </c>
       <c r="Y16" t="n">
-        <v>1270.074837231423</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181365</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364788</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539233</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697528</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.111334354891</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781549</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137114</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742891</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068557</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252394</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125432</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442449</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376276</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787309</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366619</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666273</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493062</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051587</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818288</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480411</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.6593645443558</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>614.0976530275808</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>614.0976530275808</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>444.3396492783181</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>444.3396492783181</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>278.7483743041457</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.163033586061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905995</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.2713211591</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.315813029531</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.289408615822</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.897653949235</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>978.4779832633428</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,16 +5759,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
         <v>5113.042013538981</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799022</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5911,7 +5911,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2510.802246727525</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2232.36924598063</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1945.413737851061</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1673.387333437352</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,19 +5999,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6148,7 +6148,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.993304878939</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1481.601550212352</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1254.18187952646</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6227,10 +6227,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
         <v>3007.131363532227</v>
@@ -6409,22 +6409,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
         <v>1144.575496066698</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.754677688392</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716169</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731397</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6655,13 +6655,13 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
         <v>1003.573296407379</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,40 +6710,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477122</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309372</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324599</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130896</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709351</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962456</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832887</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419179</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.995166752591</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066699</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6917,49 +6917,49 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934735</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722818</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7005,10 +7005,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657337</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405616</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420843</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928215</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545777</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
@@ -7099,7 +7099,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7111,7 +7111,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
         <v>2718.920450173579</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755402</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755402</v>
+        <v>2259.828259430058</v>
       </c>
       <c r="V37" t="n">
-        <v>2005.426305625833</v>
+        <v>1972.872751300488</v>
       </c>
       <c r="W37" t="n">
-        <v>1733.399901212124</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062216</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376324</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,64 +7160,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.849733110012</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>677.2880215932369</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932369</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>507.530017843974</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057301</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057301</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066048</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
         <v>2718.920450173579</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471575</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.79963505003</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303135</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1786.506181595187</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1514.479777181479</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1269.088022514891</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1041.668351828999</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638994</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822418</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996862</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155157</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>700.8370285643648</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873076</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410833</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981139</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814535</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.51936177313</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526187</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710024</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583062</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900079</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833905</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244938</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824249</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123902</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050121</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319658</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143113</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142406</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.909917625631</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271534</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778905</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396465</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654741</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558485</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952135</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663489</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343099</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598648</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.88030356899</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433322</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138694</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.655257138694</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.096915818154</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2175.663915071259</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1888.70840694169</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1616.682002527981</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.290247861393</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861393</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062125</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245549</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419993</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578288</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874955</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107592</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397537</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344111</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302706</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055762</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239599</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112638</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4533.079733112638</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4170.462783046464</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3765.607328457497</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.96087824738</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547033</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556036</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825573</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987189</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649028</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111525</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>96.73597668111525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1051.279025492219</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1051.279025492219</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1051.279025492219</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1051.279025492219</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1759.975738159924</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1759.975738159924</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1051.621568765314</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>879.0598572485383</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>748.6944837524202</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>578.9364800031573</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>402.2294259649133</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6381509907408</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169404</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849014</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.69591774924</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719582</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583914</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583914</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460366</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713471</v>
+        <v>2044.244603858372</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583901</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170193</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1470.859858170193</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1243.440187484301</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475602</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807414</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,22 +8933,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>292.4113754585223</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504377</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,19 +9407,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>565.8642197954478</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288296</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>706.6317115441766</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>715.8552653209142</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>268.0111327346199</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>143.6516710866781</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473465</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>268.0111327346203</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>96.56253959275537</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>26.33579611060748</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>177.9825081356737</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.91312667565423</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>216.2362286424007</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117.7661826744366</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="29">
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>113.876117358763</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627266</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25363,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>143.6516710866744</v>
       </c>
       <c r="X37" t="n">
-        <v>23.65030257151253</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704926</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244307</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168196</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>37.71410486740598</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.20338164068299</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791315203</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149834</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.277894049994764</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561534</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>11.38105307846666</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>35.15749310933582</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307154</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168196</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,16 +26077,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>8.789189859683916</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199218</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>519325.4674734746</v>
+        <v>532007.7898967499</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>519325.4674734746</v>
+        <v>534291.2699426755</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>532339.7202913861</v>
+        <v>554805.0648018771</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>532339.7202913861</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>539851.5514724192</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>554805.0648018774</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>554805.0648018772</v>
+        <v>554805.0648018771</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>554805.0648018772</v>
+        <v>554805.0648018774</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554805.0648018771</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>547293.2336208443</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>532339.7202913861</v>
+        <v>554805.0648018771</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>455725.2219068472</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068472</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068474</v>
       </c>
       <c r="E2" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="G2" t="n">
-        <v>435758.7320470117</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="I2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="J2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="K2" t="n">
         <v>447828.9465167495</v>
       </c>
       <c r="L2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="M2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
-        <v>441765.5277456627</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>429695.3132759251</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501606</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998288</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220375</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.7549799632</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877243</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.3017266224</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830679</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924762</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804612</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804612</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="G4" t="n">
-        <v>79244.55236275084</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26445,19 +26445,19 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904276</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904281</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904274</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="O4" t="n">
-        <v>80336.91334433801</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="P4" t="n">
-        <v>78141.89423804601</v>
+        <v>81439.5714690428</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024206</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764756</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48148.16026804817</v>
+        <v>48148.16026804815</v>
       </c>
       <c r="C6" t="n">
-        <v>190339.4609277581</v>
+        <v>145708.4744113523</v>
       </c>
       <c r="D6" t="n">
-        <v>190339.4609277581</v>
+        <v>204722.0135355484</v>
       </c>
       <c r="E6" t="n">
-        <v>43679.05473819381</v>
+        <v>106292.8028814818</v>
       </c>
       <c r="F6" t="n">
-        <v>278034.0767602313</v>
+        <v>288647.9121025315</v>
       </c>
       <c r="G6" t="n">
-        <v>275261.6238411683</v>
+        <v>288647.9121025316</v>
       </c>
       <c r="H6" t="n">
-        <v>276268.3814619508</v>
+        <v>288647.9121025316</v>
       </c>
       <c r="I6" t="n">
-        <v>288671.1364419141</v>
+        <v>288647.9121025315</v>
       </c>
       <c r="J6" t="n">
-        <v>177656.671096924</v>
+        <v>177633.4467575413</v>
       </c>
       <c r="K6" t="n">
-        <v>288671.1364419141</v>
+        <v>235602.0574637591</v>
       </c>
       <c r="L6" t="n">
-        <v>288671.1364419142</v>
+        <v>279255.6103759092</v>
       </c>
       <c r="M6" t="n">
-        <v>93069.9571588462</v>
+        <v>136447.7411645439</v>
       </c>
       <c r="N6" t="n">
-        <v>288671.1364419143</v>
+        <v>288647.9121025316</v>
       </c>
       <c r="O6" t="n">
-        <v>285114.3783181267</v>
+        <v>288647.9121025316</v>
       </c>
       <c r="P6" t="n">
-        <v>278034.0767602315</v>
+        <v>288647.9121025316</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631547</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513941</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938359</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760616</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>326.7326132474571</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>154.6625956268541</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,25 +27537,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>20.54651404373823</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>10.09288021307879</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27789,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.15449395818601</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>27.69227301192984</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.1313020074665</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-2.530975756218442e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.136188626803201e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-3.559051393317166e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-7.895555166631037e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-8.096892806129865e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,22 +34857,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475602</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807414</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35583,7 +35583,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165034</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35647,28 +35647,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>292.4113754585223</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504377</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,19 +36127,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>565.8642197954478</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37236,7 +37236,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37382,10 +37382,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37479,10 +37479,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37619,7 +37619,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908055</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37713,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288296</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908055</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,13 +38026,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>706.6317115441766</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>715.8552653209142</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
